--- a/fastqFiles/fastq_0779.xlsx
+++ b/fastqFiles/fastq_0779.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985CE4BD-B6A5-0648-96B6-0FE6B12FAC74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C0EA5F-011B-4C4B-AAA3-FFF5C7996410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16940" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
   <si>
     <t>libraryDate</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -478,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,7 +521,7 @@
         <v>779</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -538,7 +541,7 @@
         <v>779</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -558,7 +561,7 @@
         <v>779</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -578,7 +581,7 @@
         <v>779</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -598,7 +601,7 @@
         <v>779</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -618,7 +621,7 @@
         <v>779</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -638,7 +641,7 @@
         <v>779</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -658,7 +661,7 @@
         <v>779</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -678,7 +681,7 @@
         <v>779</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -698,7 +701,7 @@
         <v>779</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -718,7 +721,7 @@
         <v>779</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -738,7 +741,7 @@
         <v>779</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -758,7 +761,7 @@
         <v>779</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
@@ -778,7 +781,7 @@
         <v>779</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -798,7 +801,7 @@
         <v>779</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -818,7 +821,7 @@
         <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -838,7 +841,7 @@
         <v>779</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
@@ -858,7 +861,7 @@
         <v>779</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -878,7 +881,7 @@
         <v>779</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -898,7 +901,7 @@
         <v>779</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -918,7 +921,7 @@
         <v>779</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
@@ -938,7 +941,7 @@
         <v>779</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>28</v>
@@ -958,7 +961,7 @@
         <v>779</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>

--- a/fastqFiles/fastq_0779.xlsx
+++ b/fastqFiles/fastq_0779.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">

--- a/fastqFiles/fastq_0779.xlsx
+++ b/fastqFiles/fastq_0779.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">run_779_s_4_withindex_sequence_CGTCGCT.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[4]</t>
+  </si>
+  <si>
     <t xml:space="preserve">run_779_s_4_withindex_sequence_TCAACTG.fastq.gz</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">run_779_s_4_withindex_sequence_TACATGG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[6]</t>
   </si>
   <si>
     <t xml:space="preserve">run_779_s_4_withindex_sequence_GTTCTCA.fastq.gz</t>
@@ -225,12 +231,14 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T7" activeCellId="0" sqref="T7"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="50.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,8 +352,8 @@
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>4</v>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,7 +373,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -388,7 +396,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -411,16 +419,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -437,16 +445,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
@@ -463,13 +471,13 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -489,7 +497,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -512,7 +520,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -535,7 +543,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +583,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>9</v>
       </c>
@@ -658,16 +666,16 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>9</v>
       </c>
@@ -684,16 +692,16 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>9</v>
       </c>
@@ -710,16 +718,16 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>9</v>
       </c>
@@ -736,16 +744,16 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>9</v>
       </c>
@@ -762,16 +770,16 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>9</v>
       </c>
@@ -788,13 +796,13 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>4</v>
+      <c r="I24" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
